--- a/app/Licenciatura_em_Educacao_Ambiental_Pos_Laboral.xlsx
+++ b/app/Licenciatura_em_Educacao_Ambiental_Pos_Laboral.xlsx
@@ -29,19 +29,18 @@
     <sheet name="20151423" sheetId="19" r:id="rId22"/>
     <sheet name="20151448" sheetId="20" r:id="rId23"/>
     <sheet name="20151427" sheetId="21" r:id="rId24"/>
-    <sheet name="20154425" sheetId="22" r:id="rId25"/>
-    <sheet name="20151452" sheetId="23" r:id="rId26"/>
-    <sheet name="20151447" sheetId="24" r:id="rId27"/>
-    <sheet name="20151426" sheetId="25" r:id="rId28"/>
-    <sheet name="20151455" sheetId="26" r:id="rId29"/>
-    <sheet name="20151429" sheetId="27" r:id="rId30"/>
-    <sheet name="20151449" sheetId="28" r:id="rId31"/>
-    <sheet name="20151457" sheetId="29" r:id="rId32"/>
-    <sheet name="20151425" sheetId="30" r:id="rId33"/>
-    <sheet name="20151453" sheetId="31" r:id="rId34"/>
-    <sheet name="20151422" sheetId="32" r:id="rId35"/>
-    <sheet name="Sheet2" sheetId="33" r:id="rId36"/>
-    <sheet name="Sheet3" sheetId="34" r:id="rId37"/>
+    <sheet name="20151452" sheetId="22" r:id="rId25"/>
+    <sheet name="20151447" sheetId="23" r:id="rId26"/>
+    <sheet name="20151426" sheetId="24" r:id="rId27"/>
+    <sheet name="20151455" sheetId="25" r:id="rId28"/>
+    <sheet name="20151429" sheetId="26" r:id="rId29"/>
+    <sheet name="20151449" sheetId="27" r:id="rId30"/>
+    <sheet name="20151457" sheetId="28" r:id="rId31"/>
+    <sheet name="20151425" sheetId="29" r:id="rId32"/>
+    <sheet name="20151453" sheetId="30" r:id="rId33"/>
+    <sheet name="20151422" sheetId="31" r:id="rId34"/>
+    <sheet name="Sheet2" sheetId="32" r:id="rId35"/>
+    <sheet name="Sheet3" sheetId="33" r:id="rId36"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="0"/>
@@ -49,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="279">
   <si>
     <t>UNIVERSIDADE EDUARDO MONDLANE</t>
   </si>
@@ -198,9 +197,6 @@
     <t>Auneta Paiva Banze</t>
   </si>
   <si>
-    <t>Distrito de Mavalane</t>
-  </si>
-  <si>
     <t>Masculino</t>
   </si>
   <si>
@@ -264,9 +260,6 @@
     <t>Olinda Asser Chiau</t>
   </si>
   <si>
-    <t>Distrito Municipal de Kampfumo</t>
-  </si>
-  <si>
     <t>110301247860B</t>
   </si>
   <si>
@@ -291,9 +284,6 @@
     <t>Graca Fernando Semo Sair</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamaxaquene</t>
-  </si>
-  <si>
     <t>110300516176J</t>
   </si>
   <si>
@@ -411,9 +401,6 @@
     <t>Carcida Daniel Mutemba</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamubukwana</t>
-  </si>
-  <si>
     <t>110101567997I</t>
   </si>
   <si>
@@ -438,9 +425,6 @@
     <t>Helena Paulo Manjate</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamavota</t>
-  </si>
-  <si>
     <t>110101545055S</t>
   </si>
   <si>
@@ -673,15 +657,6 @@
   </si>
   <si>
     <t>Escola Secundaria de Tete</t>
-  </si>
-  <si>
-    <t>Hunguana</t>
-  </si>
-  <si>
-    <t>Sara Ernesto</t>
-  </si>
-  <si>
-    <t>+</t>
   </si>
   <si>
     <t>Gomes</t>
@@ -2169,7 +2144,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2185,7 +2160,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2201,7 +2176,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2217,7 +2192,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2233,7 +2208,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2248,9 +2223,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>120</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2258,7 +2231,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2269,7 +2242,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2278,7 +2251,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2290,7 +2263,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2298,7 +2271,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2394,7 +2367,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -2437,7 +2410,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -2764,7 +2737,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2780,7 +2753,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2796,7 +2769,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2812,7 +2785,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2828,7 +2801,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2843,9 +2816,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>129</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2853,7 +2824,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2864,7 +2835,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2873,7 +2844,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2885,7 +2856,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2893,7 +2864,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2989,7 +2960,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3032,7 +3003,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3359,7 +3330,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3375,7 +3346,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3391,7 +3362,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3407,7 +3378,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3423,7 +3394,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3438,9 +3409,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3448,7 +3417,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3459,7 +3428,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3468,7 +3437,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3480,7 +3449,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3488,7 +3457,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3584,7 +3553,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3627,7 +3596,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3954,7 +3923,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3970,7 +3939,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3986,7 +3955,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4002,7 +3971,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4018,7 +3987,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4033,9 +4002,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4043,7 +4010,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4054,7 +4021,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4063,7 +4030,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4075,7 +4042,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4083,7 +4050,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4179,7 +4146,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4222,7 +4189,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4549,7 +4516,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4565,7 +4532,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4581,7 +4548,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4597,7 +4564,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4613,7 +4580,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4628,9 +4595,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>80</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4638,7 +4603,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4649,7 +4614,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4658,7 +4623,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4670,7 +4635,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4678,7 +4643,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4774,7 +4739,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4817,7 +4782,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5144,7 +5109,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5160,7 +5125,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5176,7 +5141,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5192,7 +5157,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5208,7 +5173,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5223,9 +5188,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5233,7 +5196,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5244,7 +5207,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5253,7 +5216,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5265,7 +5228,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5273,7 +5236,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5369,7 +5332,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5412,7 +5375,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5739,7 +5702,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5755,7 +5718,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5771,7 +5734,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5787,7 +5750,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5803,7 +5766,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5818,9 +5781,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>120</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5828,7 +5789,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5839,7 +5800,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5848,7 +5809,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5860,7 +5821,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5868,7 +5829,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5964,7 +5925,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6007,7 +5968,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6334,7 +6295,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6350,7 +6311,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6366,7 +6327,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6382,7 +6343,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6398,7 +6359,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6413,9 +6374,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6423,7 +6382,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6434,7 +6393,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6443,7 +6402,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6455,7 +6414,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6463,7 +6422,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6559,7 +6518,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6602,7 +6561,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6929,7 +6888,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6945,7 +6904,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6961,7 +6920,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6977,7 +6936,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6993,7 +6952,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7008,9 +6967,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>129</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7018,7 +6975,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7029,7 +6986,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7038,7 +6995,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7050,7 +7007,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7058,7 +7015,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7154,7 +7111,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7197,7 +7154,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7524,7 +7481,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7540,7 +7497,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7556,7 +7513,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7572,7 +7529,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7588,7 +7545,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7603,9 +7560,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7613,7 +7568,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7624,7 +7579,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7633,7 +7588,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7645,7 +7600,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7653,7 +7608,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7749,7 +7704,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7792,7 +7747,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8198,9 +8153,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8208,7 +8161,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8219,7 +8172,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8228,7 +8181,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8240,7 +8193,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8248,7 +8201,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8344,7 +8297,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8387,7 +8340,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8714,7 +8667,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -8730,7 +8683,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -8746,7 +8699,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -8762,7 +8715,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -8778,7 +8731,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -8793,9 +8746,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8803,7 +8754,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8814,7 +8765,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8823,7 +8774,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8835,7 +8786,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8843,7 +8794,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8939,7 +8890,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8982,7 +8933,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9309,7 +9260,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9325,7 +9276,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9341,7 +9292,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9357,7 +9308,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9373,7 +9324,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9388,9 +9339,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9398,7 +9347,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9409,7 +9358,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9418,7 +9367,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9430,7 +9379,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9438,7 +9387,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9534,7 +9483,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9577,7 +9526,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9828,7 +9777,9 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
+      <c r="A3" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -9878,7 +9829,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154425</v>
+        <v>20151452</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -9902,7 +9853,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9918,7 +9869,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9933,7 +9884,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>205</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -9947,7 +9900,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>206</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -9982,7 +9937,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -9991,14 +9948,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -10008,13 +9969,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>207</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>208</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -10109,7 +10074,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10135,7 +10100,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2012</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -10149,7 +10116,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>210</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -10451,7 +10420,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151452</v>
+        <v>20151447</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -10538,7 +10507,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>215</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -10552,9 +10523,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10562,7 +10531,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10573,7 +10542,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10582,7 +10551,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10594,7 +10563,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10725,7 +10694,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -11044,7 +11013,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151447</v>
+        <v>20151426</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -11147,9 +11116,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>129</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11157,7 +11124,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11168,7 +11135,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11177,7 +11144,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11189,7 +11156,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>215</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11320,7 +11287,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -11639,7 +11606,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151426</v>
+        <v>20151455</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -11742,9 +11709,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>80</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11752,7 +11717,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11763,7 +11728,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11772,7 +11737,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11784,7 +11749,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11915,7 +11880,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2008</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -11931,7 +11896,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12234,7 +12199,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151455</v>
+        <v>20151429</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -12258,7 +12223,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12274,7 +12239,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12290,7 +12255,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12306,7 +12271,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12322,7 +12287,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12337,9 +12302,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>120</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12347,7 +12310,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12358,7 +12321,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12367,7 +12330,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12379,7 +12342,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12387,7 +12350,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -12483,7 +12446,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12510,7 +12473,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -12526,7 +12489,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12829,7 +12792,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151429</v>
+        <v>20151449</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -12932,9 +12895,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>129</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12942,7 +12903,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12953,7 +12914,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12962,7 +12923,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12974,7 +12935,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>247</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12982,7 +12943,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13078,7 +13039,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13121,7 +13082,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>249</v>
+        <v>119</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -13424,7 +13385,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151449</v>
+        <v>20151457</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -13527,9 +13488,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -13537,7 +13496,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -13548,7 +13507,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -13557,7 +13516,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13569,7 +13528,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>255</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13577,7 +13536,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13673,7 +13632,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13700,7 +13659,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -13716,7 +13675,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14019,7 +13978,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151457</v>
+        <v>20151425</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -14043,7 +14002,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14059,7 +14018,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14075,7 +14034,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14091,7 +14050,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14107,7 +14066,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14122,9 +14081,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14132,7 +14089,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14143,7 +14100,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14152,7 +14109,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14164,7 +14121,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>262</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14295,7 +14252,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -14311,7 +14268,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>123</v>
+        <v>64</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14638,7 +14595,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14654,7 +14611,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14670,7 +14627,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14686,7 +14643,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14702,7 +14659,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14717,9 +14674,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14727,7 +14682,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14738,7 +14693,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14747,7 +14702,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14759,7 +14714,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14767,7 +14722,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14863,7 +14818,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14906,7 +14861,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15209,7 +15164,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151425</v>
+        <v>20151453</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -15312,9 +15267,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15322,7 +15275,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15333,7 +15286,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15342,7 +15295,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15354,7 +15307,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>270</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15362,7 +15315,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -15458,7 +15411,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -15501,7 +15454,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>186</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15804,7 +15757,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151453</v>
+        <v>20151422</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -15828,7 +15781,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15844,7 +15797,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15860,7 +15813,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15876,7 +15829,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15892,7 +15845,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15907,9 +15860,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15917,7 +15868,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15928,7 +15879,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15937,7 +15888,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15949,7 +15900,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15957,7 +15908,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16053,7 +16004,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16080,7 +16031,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -16096,7 +16047,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>191</v>
+        <v>72</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -16299,601 +16250,6 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20151422</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>280</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>281</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>282</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>283</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>284</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>285</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>286</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2013</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
@@ -16917,7 +16273,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -17074,7 +16430,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17090,7 +16446,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17106,7 +16462,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -17122,7 +16478,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -17138,7 +16494,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -17153,9 +16509,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17163,7 +16517,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17174,7 +16528,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17183,7 +16537,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17195,7 +16549,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -17203,7 +16557,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -17299,7 +16653,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17342,7 +16696,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -17669,7 +17023,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17685,7 +17039,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17701,7 +17055,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -17717,7 +17071,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -17733,7 +17087,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -17748,9 +17102,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>80</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17758,7 +17110,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17769,7 +17121,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17778,7 +17130,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17790,7 +17142,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -17798,7 +17150,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -17894,7 +17246,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17937,7 +17289,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18264,7 +17616,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18280,7 +17632,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18296,7 +17648,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18312,7 +17664,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18328,7 +17680,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18343,9 +17695,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18353,7 +17703,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -18364,7 +17714,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -18373,7 +17723,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -18385,7 +17735,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -18393,7 +17743,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -18489,7 +17839,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -18532,7 +17882,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18859,7 +18209,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18875,7 +18225,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18891,7 +18241,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18907,7 +18257,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18923,7 +18273,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18938,9 +18288,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18948,7 +18296,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -18959,7 +18307,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -18968,7 +18316,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -18980,7 +18328,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -18988,7 +18336,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -19084,7 +18432,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -19127,7 +18475,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -19454,7 +18802,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -19470,7 +18818,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -19486,7 +18834,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -19502,7 +18850,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -19518,7 +18866,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -19533,9 +18881,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -19543,7 +18889,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -19554,7 +18900,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -19563,7 +18909,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -19575,7 +18921,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -19583,7 +18929,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -19679,7 +19025,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -19722,7 +19068,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -20049,7 +19395,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -20065,7 +19411,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -20081,7 +19427,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -20097,7 +19443,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -20113,7 +19459,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -20128,9 +19474,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -20138,7 +19482,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -20149,7 +19493,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -20158,7 +19502,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -20170,7 +19514,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -20178,7 +19522,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -20274,7 +19618,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -20317,7 +19661,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
